--- a/pred_ohlcv/54_21/2019-10-17 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>26646650.56327144</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>27259764.46799505</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>26687982.62719505</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>26676968.90849505</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>28408489.99859505</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27714382.55759505</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>27387183.21969505</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>31357614.31649505</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>31990451.53989505</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>32394829.61679506</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>32130421.53539506</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>32641664.58739506</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>32410794.60959506</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>32260794.60959506</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>34454643.42319506</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>34296511.63939506</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>34227641.63939506</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>34290630.89049505</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>34290630.89049505</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>33876220.10989506</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25252597.28359507</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>25146415.89729507</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25134022.13699507</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>26040784.19729507</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>25735298.14579507</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25534151.34499507</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>25908274.93419507</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25904114.51099507</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>25910046.54409507</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>26072461.58629507</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>25740217.79399507</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>24637468.51565063</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>24860641.23955063</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>24700869.23955063</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>24704869.23955063</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>24690749.06465063</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>24859776.39865297</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>24294340.26175297</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>25230932.88475297</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>25487556.22245296</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>25460711.39165296</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>25461697.48435296</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>25146759.66595297</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>25419649.94215297</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>24930372.41375297</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>24118445.19755296</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>23773223.19755296</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>23819725.91565296</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>23710994.98135296</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>23957258.98135296</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>24097295.93390479</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>23495000.19880479</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>23053732.71660479</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>22363822.43030479</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>22400585.88920479</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>20516180.7560048</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>20587102.4410048</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>19593054.3615048</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19593054.3615048</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>20415167.4744048</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>20340548.4744048</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>20278368.4003048</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>20159792.6430048</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>20166263.6430048</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>20166263.6430048</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>20222419.57791908</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>20356056.57791908</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>20356156.57791908</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>20336156.57791908</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>20228748.43591908</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>20239936.24951908</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>20221732.31521909</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20624808.23441909</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>20624808.23441909</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>20658758.23441909</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>21130395.48751909</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>20378247.05711909</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>19079216.32381909</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>19292867.47201909</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>19318592.48581909</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>19333905.75751908</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>19396510.97971908</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>19946388.61421908</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>19897357.18531908</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>20187599.17151909</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>20131273.49321909</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>20129317.30881909</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>20273799.30881909</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>20726424.86437464</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>20661999.33997464</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>20625387.98747464</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>20619482.04877464</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>20825946.90137464</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>20775304.90137464</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>20979816.90137464</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>20240151.97547464</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>20225658.60867464</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>20334408.60867464</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>21159808.60867464</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>23601517.85347464</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>22766402.60087464</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>22855662.60087464</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>22939234.43647464</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>22479034.43057464</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>22333319.65397464</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>23122167.37787465</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>22255977.36887465</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>22181237.99537465</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>22243993.22287465</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>22205803.22287465</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>26646650.56327144</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>27259764.46799505</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>26687982.62719505</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>28408489.99859505</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27714382.55759505</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>27387183.21969505</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>26857233.98729505</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>23598639.67899505</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>21264662.80449505</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20479933.30899505</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>32859770.49629505</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>31669978.05469505</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>31669978.05469505</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>31948763.15549505</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>31323968.57519505</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>31357614.31649505</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>31500825.05389505</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>31673829.68569505</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>31990451.53989505</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>32394829.61679506</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>32384400.37139506</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>32130421.53539506</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>32641664.58739506</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>32410794.60959506</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>32260794.60959506</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>32252204.98699506</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>32216054.98699506</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>34448766.06479505</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>34448766.06479505</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>34454643.42319506</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>34296511.63939506</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>34227641.63939506</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>34227641.63939506</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>34290630.89049505</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>33876220.10989506</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25252597.28359507</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>25146415.89729507</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25134022.13699507</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>26040784.19729507</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>25735298.14579507</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25534151.34499507</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>25908274.93419507</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25904114.51099507</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>25910046.54409507</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>26072461.58629507</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>25740217.79399507</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>24637468.51565063</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>24860641.23955063</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>24700869.23955063</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>24704869.23955063</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>24690749.06465063</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>24859776.39865297</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>24294340.26175297</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>25230932.88475297</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>25487556.22245296</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>25460711.39165296</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>25461697.48435296</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>25146759.66595297</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>25419649.94215297</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>24930372.41375297</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>24118445.19755296</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>23773223.19755296</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>23819725.91565296</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>23710994.98135296</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>23957258.98135296</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>24097295.93390479</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>23495000.19880479</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>23053732.71660479</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>22363822.43030479</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>22400585.88920479</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>21780381.67110479</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>22190476.95440479</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>21685459.07900479</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>21421196.5743048</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>21419029.5743048</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>21520856.7547048</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>21520254.1812048</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>21539651.6077048</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>21539651.6077048</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>21536394.27090479</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>21569827.07110479</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>21569827.07110479</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>21569917.8245048</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>21569917.8245048</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>22160734.0710048</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>26148697.8199048</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>25707082.1415048</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>25726742.1415048</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>24639692.2447048</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>24639692.2447048</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>24639692.2447048</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>24683480.2650048</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>24683480.2650048</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>23414161.0325048</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>23375674.7432048</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>19593054.3615048</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19593054.3615048</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>20415167.4744048</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>20340548.4744048</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>20278368.4003048</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>20159792.6430048</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>20166263.6430048</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>20166263.6430048</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>20222419.57791908</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>20356056.57791908</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>20356156.57791908</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>20336156.57791908</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>20228748.43591908</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>20239936.24951908</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>20221732.31521909</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20624808.23441909</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>20624808.23441909</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>20658758.23441909</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>21130395.48751909</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>20378247.05711909</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>19079216.32381909</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>19292867.47201909</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>19318592.48581909</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>19333905.75751908</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>19396510.97971908</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>19946388.61421908</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>19897357.18531908</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>20187599.17151909</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>20131273.49321909</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>20129317.30881909</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>20273799.30881909</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>20726424.86437464</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>20661999.33997464</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>20625387.98747464</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>20619482.04877464</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>20825946.90137464</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>20775304.90137464</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>20979816.90137464</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>20240151.97547464</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>20225658.60867464</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>20334408.60867464</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>21159808.60867464</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>23601517.85347464</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>22766402.60087464</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>22855662.60087464</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>22939234.43647464</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>22479034.43057464</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>22333319.65397464</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>23122167.37787465</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>22255977.36887465</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>22181237.99537465</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>22243993.22287465</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>22205803.22287465</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>21964429.28117465</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>22063039.28117465</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>22394679.48517465</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>22391360.69377465</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>22323767.48517465</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>22359055.48517465</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>22739499.27357465</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
